--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Qrfp</t>
+  </si>
+  <si>
+    <t>P2ry14</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Qrfp</t>
-  </si>
-  <si>
-    <t>P2ry14</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.083857</v>
+        <v>0.2581393333333333</v>
       </c>
       <c r="H2">
-        <v>0.251571</v>
+        <v>0.7744180000000001</v>
       </c>
       <c r="I2">
-        <v>0.05911792283234753</v>
+        <v>0.174859595118225</v>
       </c>
       <c r="J2">
-        <v>0.05911792283234752</v>
+        <v>0.1748595951182251</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.629374</v>
+        <v>3.418666</v>
       </c>
       <c r="N2">
-        <v>4.888122</v>
+        <v>10.255998</v>
       </c>
       <c r="O2">
-        <v>0.1393312216970923</v>
+        <v>0.3269718027891631</v>
       </c>
       <c r="P2">
-        <v>0.1393312216970923</v>
+        <v>0.3269718027891632</v>
       </c>
       <c r="Q2">
-        <v>0.136634415518</v>
+        <v>0.8824921621293335</v>
       </c>
       <c r="R2">
-        <v>1.229709739662</v>
+        <v>7.942429459164002</v>
       </c>
       <c r="S2">
-        <v>0.008236972412425408</v>
+        <v>0.05717415705078919</v>
       </c>
       <c r="T2">
-        <v>0.008236972412425407</v>
+        <v>0.05717415705078921</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.083857</v>
+        <v>0.2581393333333333</v>
       </c>
       <c r="H3">
-        <v>0.251571</v>
+        <v>0.7744180000000001</v>
       </c>
       <c r="I3">
-        <v>0.05911792283234753</v>
+        <v>0.174859595118225</v>
       </c>
       <c r="J3">
-        <v>0.05911792283234752</v>
+        <v>0.1748595951182251</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.418666</v>
+        <v>1.024713</v>
       </c>
       <c r="N3">
-        <v>10.255998</v>
+        <v>3.074139</v>
       </c>
       <c r="O3">
-        <v>0.2923373702749104</v>
+        <v>0.09800672453860414</v>
       </c>
       <c r="P3">
-        <v>0.2923373702749104</v>
+        <v>0.09800672453860414</v>
       </c>
       <c r="Q3">
-        <v>0.2866790747620001</v>
+        <v>0.264518730678</v>
       </c>
       <c r="R3">
-        <v>2.580111672858</v>
+        <v>2.380668576102</v>
       </c>
       <c r="S3">
-        <v>0.01728237809692356</v>
+        <v>0.01713741617168373</v>
       </c>
       <c r="T3">
-        <v>0.01728237809692356</v>
+        <v>0.01713741617168373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.083857</v>
+        <v>0.2581393333333333</v>
       </c>
       <c r="H4">
-        <v>0.251571</v>
+        <v>0.7744180000000001</v>
       </c>
       <c r="I4">
-        <v>0.05911792283234753</v>
+        <v>0.174859595118225</v>
       </c>
       <c r="J4">
-        <v>0.05911792283234752</v>
+        <v>0.1748595951182251</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,60 +679,60 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4594863333333333</v>
+        <v>6.012158666666667</v>
       </c>
       <c r="N4">
-        <v>1.378459</v>
+        <v>18.036476</v>
       </c>
       <c r="O4">
-        <v>0.03929164953930203</v>
+        <v>0.5750214726722327</v>
       </c>
       <c r="P4">
-        <v>0.03929164953930204</v>
+        <v>0.5750214726722327</v>
       </c>
       <c r="Q4">
-        <v>0.03853114545433333</v>
+        <v>1.551974630107556</v>
       </c>
       <c r="R4">
-        <v>0.3467803090889999</v>
+        <v>13.967771670968</v>
       </c>
       <c r="S4">
-        <v>0.002322840705420101</v>
+        <v>0.1005480218957521</v>
       </c>
       <c r="T4">
-        <v>0.002322840705420101</v>
+        <v>0.1005480218957521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.083857</v>
+        <v>0.7731873333333334</v>
       </c>
       <c r="H5">
-        <v>0.251571</v>
+        <v>2.319562</v>
       </c>
       <c r="I5">
-        <v>0.05911792283234753</v>
+        <v>0.5237451507733812</v>
       </c>
       <c r="J5">
-        <v>0.05911792283234752</v>
+        <v>0.5237451507733814</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.186722666666667</v>
+        <v>3.418666</v>
       </c>
       <c r="N5">
-        <v>18.560168</v>
+        <v>10.255998</v>
       </c>
       <c r="O5">
-        <v>0.5290397584886953</v>
+        <v>0.3269718027891631</v>
       </c>
       <c r="P5">
-        <v>0.5290397584886953</v>
+        <v>0.3269718027891632</v>
       </c>
       <c r="Q5">
-        <v>0.5188000026586668</v>
+        <v>2.643269248097334</v>
       </c>
       <c r="R5">
-        <v>4.669200023928</v>
+        <v>23.78942323287601</v>
       </c>
       <c r="S5">
-        <v>0.03127573161757846</v>
+        <v>0.1712498961504545</v>
       </c>
       <c r="T5">
-        <v>0.03127573161757846</v>
+        <v>0.1712498961504546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,40 +791,40 @@
         <v>2.319562</v>
       </c>
       <c r="I6">
-        <v>0.5450854324260177</v>
+        <v>0.5237451507733812</v>
       </c>
       <c r="J6">
-        <v>0.5450854324260177</v>
+        <v>0.5237451507733814</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.629374</v>
+        <v>1.024713</v>
       </c>
       <c r="N6">
-        <v>4.888122</v>
+        <v>3.074139</v>
       </c>
       <c r="O6">
-        <v>0.1393312216970923</v>
+        <v>0.09800672453860414</v>
       </c>
       <c r="P6">
-        <v>0.1393312216970923</v>
+        <v>0.09800672453860414</v>
       </c>
       <c r="Q6">
-        <v>1.259811338062667</v>
+        <v>0.7922951119020001</v>
       </c>
       <c r="R6">
-        <v>11.338302042564</v>
+        <v>7.130656007118001</v>
       </c>
       <c r="S6">
-        <v>0.07594741922920489</v>
+        <v>0.05133054672027647</v>
       </c>
       <c r="T6">
-        <v>0.07594741922920489</v>
+        <v>0.05133054672027648</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,10 +853,10 @@
         <v>2.319562</v>
       </c>
       <c r="I7">
-        <v>0.5450854324260177</v>
+        <v>0.5237451507733812</v>
       </c>
       <c r="J7">
-        <v>0.5450854324260177</v>
+        <v>0.5237451507733814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +865,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.418666</v>
+        <v>6.012158666666667</v>
       </c>
       <c r="N7">
-        <v>10.255998</v>
+        <v>18.036476</v>
       </c>
       <c r="O7">
-        <v>0.2923373702749104</v>
+        <v>0.5750214726722327</v>
       </c>
       <c r="P7">
-        <v>0.2923373702749104</v>
+        <v>0.5750214726722327</v>
       </c>
       <c r="Q7">
-        <v>2.643269248097334</v>
+        <v>4.64852492705689</v>
       </c>
       <c r="R7">
-        <v>23.78942323287601</v>
+        <v>41.83672434351201</v>
       </c>
       <c r="S7">
-        <v>0.1593488418905844</v>
+        <v>0.3011647079026502</v>
       </c>
       <c r="T7">
-        <v>0.1593488418905844</v>
+        <v>0.3011647079026503</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.7731873333333334</v>
+        <v>0.4449396666666667</v>
       </c>
       <c r="H8">
-        <v>2.319562</v>
+        <v>1.334819</v>
       </c>
       <c r="I8">
-        <v>0.5450854324260177</v>
+        <v>0.3013952541083937</v>
       </c>
       <c r="J8">
-        <v>0.5450854324260177</v>
+        <v>0.3013952541083937</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,42 +927,42 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4594863333333333</v>
+        <v>3.418666</v>
       </c>
       <c r="N8">
-        <v>1.378459</v>
+        <v>10.255998</v>
       </c>
       <c r="O8">
-        <v>0.03929164953930203</v>
+        <v>0.3269718027891631</v>
       </c>
       <c r="P8">
-        <v>0.03929164953930204</v>
+        <v>0.3269718027891632</v>
       </c>
       <c r="Q8">
-        <v>0.3552690127731111</v>
+        <v>1.521100110484667</v>
       </c>
       <c r="R8">
-        <v>3.197421114958</v>
+        <v>13.689900994362</v>
       </c>
       <c r="S8">
-        <v>0.02141730577986199</v>
+        <v>0.0985477495879194</v>
       </c>
       <c r="T8">
-        <v>0.02141730577986199</v>
+        <v>0.09854774958791944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.7731873333333334</v>
+        <v>0.4449396666666667</v>
       </c>
       <c r="H9">
-        <v>2.319562</v>
+        <v>1.334819</v>
       </c>
       <c r="I9">
-        <v>0.5450854324260177</v>
+        <v>0.3013952541083937</v>
       </c>
       <c r="J9">
-        <v>0.5450854324260177</v>
+        <v>0.3013952541083937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.186722666666667</v>
+        <v>1.024713</v>
       </c>
       <c r="N9">
-        <v>18.560168</v>
+        <v>3.074139</v>
       </c>
       <c r="O9">
-        <v>0.5290397584886953</v>
+        <v>0.09800672453860414</v>
       </c>
       <c r="P9">
-        <v>0.5290397584886953</v>
+        <v>0.09800672453860414</v>
       </c>
       <c r="Q9">
-        <v>4.78349560071289</v>
+        <v>0.455935460649</v>
       </c>
       <c r="R9">
-        <v>43.05146040641601</v>
+        <v>4.103419145840999</v>
       </c>
       <c r="S9">
-        <v>0.2883718655263665</v>
+        <v>0.02953876164664394</v>
       </c>
       <c r="T9">
-        <v>0.2883718655263665</v>
+        <v>0.02953876164664394</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,480 +1033,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.372284</v>
+        <v>0.4449396666666667</v>
       </c>
       <c r="H10">
-        <v>1.116852</v>
+        <v>1.334819</v>
       </c>
       <c r="I10">
-        <v>0.2624546165939357</v>
+        <v>0.3013952541083937</v>
       </c>
       <c r="J10">
-        <v>0.2624546165939357</v>
+        <v>0.3013952541083937</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.629374</v>
+        <v>6.012158666666667</v>
       </c>
       <c r="N10">
-        <v>4.888122</v>
+        <v>18.036476</v>
       </c>
       <c r="O10">
-        <v>0.1393312216970923</v>
+        <v>0.5750214726722327</v>
       </c>
       <c r="P10">
-        <v>0.1393312216970923</v>
+        <v>0.5750214726722327</v>
       </c>
       <c r="Q10">
-        <v>0.6065898702160001</v>
+        <v>2.675047873093778</v>
       </c>
       <c r="R10">
-        <v>5.459308831944</v>
+        <v>24.075430857844</v>
       </c>
       <c r="S10">
-        <v>0.03656812237007501</v>
+        <v>0.1733087428738303</v>
       </c>
       <c r="T10">
-        <v>0.03656812237007501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.372284</v>
-      </c>
-      <c r="H11">
-        <v>1.116852</v>
-      </c>
-      <c r="I11">
-        <v>0.2624546165939357</v>
-      </c>
-      <c r="J11">
-        <v>0.2624546165939357</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.418666</v>
-      </c>
-      <c r="N11">
-        <v>10.255998</v>
-      </c>
-      <c r="O11">
-        <v>0.2923373702749104</v>
-      </c>
-      <c r="P11">
-        <v>0.2923373702749104</v>
-      </c>
-      <c r="Q11">
-        <v>1.272714653144</v>
-      </c>
-      <c r="R11">
-        <v>11.454431878296</v>
-      </c>
-      <c r="S11">
-        <v>0.07672529243158102</v>
-      </c>
-      <c r="T11">
-        <v>0.07672529243158104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.372284</v>
-      </c>
-      <c r="H12">
-        <v>1.116852</v>
-      </c>
-      <c r="I12">
-        <v>0.2624546165939357</v>
-      </c>
-      <c r="J12">
-        <v>0.2624546165939357</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.4594863333333333</v>
-      </c>
-      <c r="N12">
-        <v>1.378459</v>
-      </c>
-      <c r="O12">
-        <v>0.03929164953930203</v>
-      </c>
-      <c r="P12">
-        <v>0.03929164953930204</v>
-      </c>
-      <c r="Q12">
-        <v>0.1710594101186667</v>
-      </c>
-      <c r="R12">
-        <v>1.539534691068</v>
-      </c>
-      <c r="S12">
-        <v>0.0103122748151808</v>
-      </c>
-      <c r="T12">
-        <v>0.01031227481518081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.372284</v>
-      </c>
-      <c r="H13">
-        <v>1.116852</v>
-      </c>
-      <c r="I13">
-        <v>0.2624546165939357</v>
-      </c>
-      <c r="J13">
-        <v>0.2624546165939357</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.186722666666667</v>
-      </c>
-      <c r="N13">
-        <v>18.560168</v>
-      </c>
-      <c r="O13">
-        <v>0.5290397584886953</v>
-      </c>
-      <c r="P13">
-        <v>0.5290397584886953</v>
-      </c>
-      <c r="Q13">
-        <v>2.303217861237334</v>
-      </c>
-      <c r="R13">
-        <v>20.728960751136</v>
-      </c>
-      <c r="S13">
-        <v>0.1388489269770989</v>
-      </c>
-      <c r="T13">
-        <v>0.1388489269770989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1891416666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.567425</v>
-      </c>
-      <c r="I14">
-        <v>0.133342028147699</v>
-      </c>
-      <c r="J14">
-        <v>0.133342028147699</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>1.629374</v>
-      </c>
-      <c r="N14">
-        <v>4.888122</v>
-      </c>
-      <c r="O14">
-        <v>0.1393312216970923</v>
-      </c>
-      <c r="P14">
-        <v>0.1393312216970923</v>
-      </c>
-      <c r="Q14">
-        <v>0.3081825139833334</v>
-      </c>
-      <c r="R14">
-        <v>2.77364262585</v>
-      </c>
-      <c r="S14">
-        <v>0.01857870768538698</v>
-      </c>
-      <c r="T14">
-        <v>0.01857870768538698</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1891416666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.567425</v>
-      </c>
-      <c r="I15">
-        <v>0.133342028147699</v>
-      </c>
-      <c r="J15">
-        <v>0.133342028147699</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>3.418666</v>
-      </c>
-      <c r="N15">
-        <v>10.255998</v>
-      </c>
-      <c r="O15">
-        <v>0.2923373702749104</v>
-      </c>
-      <c r="P15">
-        <v>0.2923373702749104</v>
-      </c>
-      <c r="Q15">
-        <v>0.6466121850166667</v>
-      </c>
-      <c r="R15">
-        <v>5.819509665150001</v>
-      </c>
-      <c r="S15">
-        <v>0.03898085785582141</v>
-      </c>
-      <c r="T15">
-        <v>0.03898085785582141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1891416666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.567425</v>
-      </c>
-      <c r="I16">
-        <v>0.133342028147699</v>
-      </c>
-      <c r="J16">
-        <v>0.133342028147699</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4594863333333333</v>
-      </c>
-      <c r="N16">
-        <v>1.378459</v>
-      </c>
-      <c r="O16">
-        <v>0.03929164953930203</v>
-      </c>
-      <c r="P16">
-        <v>0.03929164953930204</v>
-      </c>
-      <c r="Q16">
-        <v>0.08690801089722221</v>
-      </c>
-      <c r="R16">
-        <v>0.7821720980749999</v>
-      </c>
-      <c r="S16">
-        <v>0.005239228238839137</v>
-      </c>
-      <c r="T16">
-        <v>0.005239228238839138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.1891416666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.567425</v>
-      </c>
-      <c r="I17">
-        <v>0.133342028147699</v>
-      </c>
-      <c r="J17">
-        <v>0.133342028147699</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>6.186722666666667</v>
-      </c>
-      <c r="N17">
-        <v>18.560168</v>
-      </c>
-      <c r="O17">
-        <v>0.5290397584886953</v>
-      </c>
-      <c r="P17">
-        <v>0.5290397584886953</v>
-      </c>
-      <c r="Q17">
-        <v>1.170167036377778</v>
-      </c>
-      <c r="R17">
-        <v>10.5315033274</v>
-      </c>
-      <c r="S17">
-        <v>0.0705432343676515</v>
-      </c>
-      <c r="T17">
-        <v>0.0705432343676515</v>
+        <v>0.1733087428738304</v>
       </c>
     </row>
   </sheetData>
